--- a/dictionary/Главный словарь.xlsx
+++ b/dictionary/Главный словарь.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\replace_all\dictionary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{771E5F50-169D-4949-9EFB-AC48CE27345F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03615E6E-43CE-400E-B4DF-2BE05F133D3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Простые" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Составные в 1 очередь" sheetId="5" r:id="rId4"/>
     <sheet name="не определено" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191028" iterateDelta="1E-4"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2999" uniqueCount="2829">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2986" uniqueCount="2826">
   <si>
     <t>криминальная</t>
   </si>
@@ -8067,18 +8067,6 @@
     <t>экономическом виде устройства</t>
   </si>
   <si>
-    <t>Где в этом «экономическом виде устройства»</t>
-  </si>
-  <si>
-    <t>а скупала их единственная компания</t>
-  </si>
-  <si>
-    <t>а скупало их единственное предприятие</t>
-  </si>
-  <si>
-    <t>Где в этой «экономической модели»</t>
-  </si>
-  <si>
     <t>монопольно</t>
   </si>
   <si>
@@ -8629,6 +8617,9 @@
   </si>
   <si>
     <t>снабженных</t>
+  </si>
+  <si>
+    <t>санкционировано</t>
   </si>
 </sst>
 </file>
@@ -9126,8 +9117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDCB9A67-77EF-4B4B-A409-BADD45AFE303}">
   <dimension ref="A1:D1267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1258" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A1268" sqref="A1268"/>
+    <sheetView tabSelected="1" topLeftCell="A1228" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A1257" sqref="A1257:B1257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -9639,7 +9630,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>131</v>
       </c>
@@ -9647,7 +9638,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>133</v>
       </c>
@@ -9655,7 +9646,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>135</v>
       </c>
@@ -9665,8 +9656,11 @@
       <c r="C67" t="s">
         <v>1728</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D67" t="s">
+        <v>2810</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68" s="2" t="s">
         <v>137</v>
       </c>
@@ -9674,7 +9668,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A69" s="3" t="s">
         <v>139</v>
       </c>
@@ -9685,7 +9679,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>141</v>
       </c>
@@ -9693,7 +9687,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A71" s="3" t="s">
         <v>143</v>
       </c>
@@ -9701,7 +9695,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>145</v>
       </c>
@@ -9709,7 +9703,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>147</v>
       </c>
@@ -9717,7 +9711,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>149</v>
       </c>
@@ -9725,7 +9719,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>151</v>
       </c>
@@ -9733,7 +9727,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>153</v>
       </c>
@@ -9741,7 +9735,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>155</v>
       </c>
@@ -9749,7 +9743,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>157</v>
       </c>
@@ -9757,7 +9751,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A80" s="1" t="s">
         <v>160</v>
       </c>
@@ -9855,10 +9849,10 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="s">
-        <v>2658</v>
+        <v>2654</v>
       </c>
       <c r="B92" t="s">
-        <v>2659</v>
+        <v>2655</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.45">
@@ -12528,10 +12522,10 @@
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A424" s="1" t="s">
-        <v>2647</v>
+        <v>2643</v>
       </c>
       <c r="B424" t="s">
-        <v>2648</v>
+        <v>2644</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.45">
@@ -12616,10 +12610,10 @@
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A435" s="1" t="s">
-        <v>2645</v>
+        <v>2641</v>
       </c>
       <c r="B435" t="s">
-        <v>2646</v>
+        <v>2642</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.45">
@@ -14114,7 +14108,7 @@
         <v>1168</v>
       </c>
       <c r="B622" t="s">
-        <v>2653</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.45">
@@ -18624,55 +18618,55 @@
     </row>
     <row r="1188" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1188" t="s">
-        <v>2649</v>
+        <v>2645</v>
       </c>
       <c r="B1188" t="s">
-        <v>2650</v>
+        <v>2646</v>
       </c>
     </row>
     <row r="1189" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1189" t="s">
-        <v>2651</v>
+        <v>2647</v>
       </c>
       <c r="B1189" t="s">
-        <v>2652</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="1190" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1190" t="s">
-        <v>2654</v>
+        <v>2650</v>
       </c>
       <c r="B1190" t="s">
-        <v>2655</v>
+        <v>2651</v>
       </c>
     </row>
     <row r="1191" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1191" t="s">
-        <v>2660</v>
+        <v>2656</v>
       </c>
       <c r="B1191" t="s">
-        <v>2661</v>
+        <v>2657</v>
       </c>
     </row>
     <row r="1192" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1192" t="s">
-        <v>2662</v>
+        <v>2658</v>
       </c>
       <c r="B1192" t="s">
-        <v>2663</v>
+        <v>2659</v>
       </c>
     </row>
     <row r="1193" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1193" t="s">
-        <v>2666</v>
+        <v>2662</v>
       </c>
       <c r="B1193" t="s">
-        <v>2667</v>
+        <v>2663</v>
       </c>
     </row>
     <row r="1194" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1194" t="s">
-        <v>2668</v>
+        <v>2664</v>
       </c>
       <c r="B1194" t="s">
         <v>786</v>
@@ -18680,47 +18674,47 @@
     </row>
     <row r="1195" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1195" t="s">
-        <v>2669</v>
+        <v>2665</v>
       </c>
       <c r="B1195" t="s">
-        <v>2670</v>
+        <v>2666</v>
       </c>
     </row>
     <row r="1196" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1196" t="s">
-        <v>2671</v>
+        <v>2667</v>
       </c>
       <c r="B1196" t="s">
-        <v>2672</v>
+        <v>2668</v>
       </c>
     </row>
     <row r="1197" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1197" t="s">
-        <v>2673</v>
+        <v>2669</v>
       </c>
       <c r="B1197" t="s">
-        <v>2674</v>
+        <v>2670</v>
       </c>
     </row>
     <row r="1198" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1198" t="s">
-        <v>2675</v>
+        <v>2671</v>
       </c>
       <c r="B1198" t="s">
-        <v>2676</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="1199" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1199" t="s">
-        <v>2679</v>
+        <v>2675</v>
       </c>
       <c r="B1199" t="s">
-        <v>2680</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="1200" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1200" t="s">
-        <v>2681</v>
+        <v>2677</v>
       </c>
       <c r="B1200" t="s">
         <v>973</v>
@@ -18728,55 +18722,55 @@
     </row>
     <row r="1201" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1201" t="s">
-        <v>2682</v>
+        <v>2678</v>
       </c>
       <c r="B1201" t="s">
-        <v>2683</v>
+        <v>2679</v>
       </c>
     </row>
     <row r="1202" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1202" t="s">
-        <v>2684</v>
+        <v>2680</v>
       </c>
       <c r="B1202" t="s">
-        <v>2685</v>
+        <v>2681</v>
       </c>
     </row>
     <row r="1203" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1203" t="s">
-        <v>2686</v>
+        <v>2682</v>
       </c>
       <c r="B1203" t="s">
-        <v>2687</v>
+        <v>2683</v>
       </c>
     </row>
     <row r="1204" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1204" t="s">
-        <v>2693</v>
+        <v>2689</v>
       </c>
       <c r="B1204" t="s">
-        <v>2688</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="1205" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1205" t="s">
-        <v>2689</v>
+        <v>2685</v>
       </c>
       <c r="B1205" t="s">
-        <v>2690</v>
+        <v>2686</v>
       </c>
     </row>
     <row r="1206" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1206" t="s">
-        <v>2691</v>
+        <v>2687</v>
       </c>
       <c r="B1206" t="s">
-        <v>2692</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="1207" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1207" t="s">
-        <v>2689</v>
+        <v>2825</v>
       </c>
       <c r="B1207" t="s">
         <v>1710</v>
@@ -18784,175 +18778,167 @@
     </row>
     <row r="1208" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1208" t="s">
-        <v>2694</v>
+        <v>2690</v>
       </c>
       <c r="B1208" t="s">
-        <v>2695</v>
+        <v>2691</v>
       </c>
     </row>
     <row r="1209" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1209" t="s">
-        <v>2697</v>
+        <v>2693</v>
       </c>
       <c r="B1209" t="s">
-        <v>2698</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="1210" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1210" t="s">
-        <v>2699</v>
+        <v>2695</v>
       </c>
       <c r="B1210" t="s">
-        <v>2700</v>
-      </c>
-    </row>
-    <row r="1211" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1211" t="s">
-        <v>2662</v>
-      </c>
-      <c r="B1211" t="s">
-        <v>2663</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="1212" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1212" t="s">
-        <v>2701</v>
+        <v>2697</v>
       </c>
       <c r="B1212" t="s">
-        <v>2702</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="1213" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1213" t="s">
-        <v>2703</v>
+        <v>2699</v>
       </c>
       <c r="B1213" t="s">
-        <v>2704</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="1214" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1214" t="s">
-        <v>2705</v>
+        <v>2701</v>
       </c>
       <c r="B1214" t="s">
-        <v>2706</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="1215" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1215" t="s">
-        <v>2708</v>
+        <v>2704</v>
       </c>
       <c r="B1215" t="s">
-        <v>2707</v>
+        <v>2703</v>
       </c>
     </row>
     <row r="1216" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1216" t="s">
-        <v>2709</v>
+        <v>2705</v>
       </c>
       <c r="B1216" t="s">
-        <v>2710</v>
+        <v>2706</v>
       </c>
     </row>
     <row r="1217" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1217" t="s">
-        <v>2711</v>
+        <v>2707</v>
       </c>
       <c r="B1217" t="s">
-        <v>2712</v>
+        <v>2708</v>
       </c>
     </row>
     <row r="1218" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1218" t="s">
-        <v>2713</v>
+        <v>2709</v>
       </c>
       <c r="B1218" t="s">
-        <v>2714</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="1219" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1219" t="s">
-        <v>2715</v>
+        <v>2711</v>
       </c>
       <c r="B1219" t="s">
-        <v>2716</v>
+        <v>2712</v>
       </c>
     </row>
     <row r="1220" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1220" t="s">
-        <v>2717</v>
+        <v>2713</v>
       </c>
       <c r="B1220" t="s">
-        <v>2714</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="1221" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1221" t="s">
-        <v>2728</v>
+        <v>2724</v>
       </c>
       <c r="B1221" t="s">
-        <v>2729</v>
+        <v>2725</v>
       </c>
     </row>
     <row r="1222" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1222" t="s">
-        <v>2730</v>
+        <v>2726</v>
       </c>
       <c r="B1222" t="s">
-        <v>2731</v>
+        <v>2727</v>
       </c>
     </row>
     <row r="1223" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1223" t="s">
-        <v>2732</v>
+        <v>2728</v>
       </c>
       <c r="B1223" t="s">
-        <v>2733</v>
+        <v>2729</v>
       </c>
     </row>
     <row r="1224" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1224" t="s">
-        <v>2734</v>
+        <v>2730</v>
       </c>
       <c r="B1224" t="s">
-        <v>2735</v>
+        <v>2731</v>
       </c>
     </row>
     <row r="1225" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1225" t="s">
-        <v>2736</v>
+        <v>2732</v>
       </c>
       <c r="B1225" t="s">
-        <v>2737</v>
+        <v>2733</v>
       </c>
     </row>
     <row r="1226" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1226" t="s">
-        <v>2738</v>
+        <v>2734</v>
       </c>
       <c r="B1226" t="s">
-        <v>2739</v>
+        <v>2735</v>
       </c>
     </row>
     <row r="1227" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1227" t="s">
-        <v>2740</v>
+        <v>2736</v>
       </c>
       <c r="B1227" t="s">
-        <v>2741</v>
+        <v>2737</v>
       </c>
     </row>
     <row r="1228" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1228" t="s">
-        <v>2742</v>
+        <v>2738</v>
       </c>
       <c r="B1228" t="s">
-        <v>2743</v>
+        <v>2739</v>
       </c>
     </row>
     <row r="1229" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1229" t="s">
-        <v>2744</v>
+        <v>2740</v>
       </c>
       <c r="B1229" t="s">
         <v>2204</v>
@@ -18960,7 +18946,7 @@
     </row>
     <row r="1230" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1230" t="s">
-        <v>2745</v>
+        <v>2741</v>
       </c>
       <c r="B1230" t="s">
         <v>1596</v>
@@ -18968,298 +18954,266 @@
     </row>
     <row r="1231" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1231" t="s">
-        <v>2746</v>
+        <v>2742</v>
       </c>
       <c r="B1231" t="s">
-        <v>2747</v>
+        <v>2743</v>
       </c>
     </row>
     <row r="1232" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1232" t="s">
-        <v>2748</v>
+        <v>2744</v>
       </c>
       <c r="B1232" t="s">
-        <v>2749</v>
-      </c>
-    </row>
-    <row r="1233" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1233" t="s">
-        <v>556</v>
-      </c>
-      <c r="B1233" t="s">
-        <v>557</v>
+        <v>2745</v>
       </c>
     </row>
     <row r="1234" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1234" t="s">
-        <v>2752</v>
+        <v>2748</v>
       </c>
       <c r="B1234" t="s">
-        <v>2753</v>
-      </c>
-    </row>
-    <row r="1235" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1235" t="s">
-        <v>1843</v>
-      </c>
-      <c r="B1235" t="s">
-        <v>1844</v>
+        <v>2749</v>
       </c>
     </row>
     <row r="1236" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1236" t="s">
-        <v>2754</v>
+        <v>2750</v>
       </c>
       <c r="B1236" t="s">
-        <v>2755</v>
+        <v>2751</v>
       </c>
     </row>
     <row r="1237" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1237" t="s">
-        <v>2757</v>
+        <v>2753</v>
       </c>
       <c r="B1237" t="s">
-        <v>2758</v>
+        <v>2754</v>
       </c>
     </row>
     <row r="1238" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1238" t="s">
-        <v>2759</v>
+        <v>2755</v>
       </c>
       <c r="B1238" t="s">
-        <v>2760</v>
+        <v>2756</v>
       </c>
     </row>
     <row r="1239" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1239" t="s">
-        <v>2761</v>
+        <v>2757</v>
       </c>
       <c r="B1239" t="s">
-        <v>2762</v>
+        <v>2758</v>
       </c>
     </row>
     <row r="1240" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1240" t="s">
-        <v>2763</v>
+        <v>2759</v>
       </c>
       <c r="B1240" t="s">
-        <v>2764</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="1241" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1241" t="s">
-        <v>2767</v>
+        <v>2763</v>
       </c>
       <c r="B1241" t="s">
-        <v>2768</v>
+        <v>2764</v>
       </c>
     </row>
     <row r="1242" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1242" t="s">
-        <v>2770</v>
+        <v>2766</v>
       </c>
       <c r="B1242" t="s">
-        <v>2771</v>
+        <v>2767</v>
       </c>
     </row>
     <row r="1243" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1243" t="s">
-        <v>2772</v>
+        <v>2768</v>
       </c>
       <c r="B1243" t="s">
-        <v>2773</v>
+        <v>2769</v>
       </c>
     </row>
     <row r="1244" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1244" t="s">
-        <v>2774</v>
+        <v>2770</v>
       </c>
       <c r="B1244" t="s">
-        <v>2775</v>
+        <v>2771</v>
       </c>
     </row>
     <row r="1245" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1245" t="s">
-        <v>2776</v>
+        <v>2772</v>
       </c>
       <c r="B1245" t="s">
-        <v>2777</v>
+        <v>2773</v>
       </c>
     </row>
     <row r="1246" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1246" t="s">
-        <v>2778</v>
+        <v>2774</v>
       </c>
       <c r="B1246" t="s">
-        <v>2780</v>
+        <v>2776</v>
       </c>
     </row>
     <row r="1247" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1247" t="s">
-        <v>2781</v>
+        <v>2777</v>
       </c>
       <c r="B1247" t="s">
-        <v>2782</v>
+        <v>2778</v>
       </c>
     </row>
     <row r="1248" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1248" t="s">
-        <v>2783</v>
+        <v>2779</v>
       </c>
       <c r="B1248" t="s">
-        <v>2784</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="1249" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1249" t="s">
-        <v>2785</v>
+        <v>2781</v>
       </c>
       <c r="B1249" t="s">
-        <v>2786</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="1250" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1250" t="s">
-        <v>2789</v>
+        <v>2785</v>
       </c>
       <c r="B1250" t="s">
-        <v>2790</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="1251" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1251" t="s">
-        <v>2792</v>
+        <v>2788</v>
       </c>
       <c r="B1251" t="s">
-        <v>2793</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="1252" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1252" t="s">
-        <v>2796</v>
+        <v>2792</v>
       </c>
       <c r="B1252" t="s">
-        <v>2797</v>
+        <v>2793</v>
       </c>
     </row>
     <row r="1253" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1253" t="s">
-        <v>2798</v>
+        <v>2794</v>
       </c>
       <c r="B1253" t="s">
-        <v>2799</v>
+        <v>2795</v>
       </c>
     </row>
     <row r="1254" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1254" t="s">
-        <v>2800</v>
+        <v>2796</v>
       </c>
       <c r="B1254" t="s">
-        <v>2801</v>
+        <v>2797</v>
       </c>
     </row>
     <row r="1255" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1255" t="s">
-        <v>2802</v>
+        <v>2798</v>
       </c>
       <c r="B1255" t="s">
-        <v>2797</v>
+        <v>2793</v>
       </c>
     </row>
     <row r="1256" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1256" t="s">
-        <v>2805</v>
+        <v>2801</v>
       </c>
       <c r="B1256" t="s">
-        <v>2806</v>
-      </c>
-    </row>
-    <row r="1257" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1257" t="s">
-        <v>2728</v>
-      </c>
-      <c r="B1257" t="s">
-        <v>2729</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="1258" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1258" t="s">
-        <v>2811</v>
+        <v>2807</v>
       </c>
       <c r="B1258" t="s">
-        <v>2812</v>
+        <v>2808</v>
       </c>
     </row>
     <row r="1259" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1259" t="s">
-        <v>2813</v>
+        <v>2809</v>
       </c>
       <c r="B1259" t="s">
         <v>1526</v>
       </c>
     </row>
-    <row r="1260" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1260" t="s">
-        <v>135</v>
-      </c>
-      <c r="B1260" t="s">
-        <v>2814</v>
-      </c>
-    </row>
     <row r="1261" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1261" t="s">
-        <v>2815</v>
+        <v>2811</v>
       </c>
       <c r="B1261" t="s">
-        <v>2816</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="1262" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1262" t="s">
-        <v>2817</v>
+        <v>2813</v>
       </c>
       <c r="B1262" t="s">
-        <v>2818</v>
+        <v>2814</v>
       </c>
     </row>
     <row r="1263" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1263" t="s">
-        <v>2819</v>
+        <v>2815</v>
       </c>
       <c r="B1263" t="s">
-        <v>2820</v>
+        <v>2816</v>
       </c>
     </row>
     <row r="1264" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1264" t="s">
-        <v>2821</v>
+        <v>2817</v>
       </c>
       <c r="B1264" t="s">
-        <v>2822</v>
+        <v>2818</v>
       </c>
     </row>
     <row r="1265" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1265" t="s">
-        <v>2823</v>
+        <v>2819</v>
       </c>
       <c r="B1265" t="s">
-        <v>2824</v>
+        <v>2820</v>
       </c>
     </row>
     <row r="1266" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1266" t="s">
-        <v>2825</v>
+        <v>2821</v>
       </c>
       <c r="B1266" t="s">
-        <v>2826</v>
+        <v>2822</v>
       </c>
     </row>
     <row r="1267" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1267" t="s">
-        <v>2827</v>
+        <v>2823</v>
       </c>
       <c r="B1267" t="s">
-        <v>2828</v>
+        <v>2824</v>
       </c>
     </row>
   </sheetData>
@@ -19275,13 +19229,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D669A2-CEB8-B743-9F48-CA926DA2420B}">
   <dimension ref="A1:B208"/>
   <sheetViews>
-    <sheetView topLeftCell="A197" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="A194" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="B209" sqref="B209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="40.59765625" customWidth="1"/>
+    <col min="1" max="1" width="47.59765625" customWidth="1"/>
     <col min="2" max="2" width="24.59765625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -20903,50 +20857,50 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A203" t="s">
-        <v>2656</v>
+        <v>2652</v>
       </c>
       <c r="B203" t="s">
-        <v>2657</v>
+        <v>2653</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A204" t="s">
-        <v>2721</v>
+        <v>2717</v>
       </c>
       <c r="B204" t="s">
-        <v>2722</v>
+        <v>2718</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A205" t="s">
-        <v>2724</v>
+        <v>2720</v>
       </c>
       <c r="B205" t="s">
-        <v>2725</v>
+        <v>2721</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A206" t="s">
-        <v>2726</v>
+        <v>2722</v>
       </c>
       <c r="B206" t="s">
-        <v>2727</v>
+        <v>2723</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A207" t="s">
-        <v>2750</v>
+        <v>2746</v>
       </c>
       <c r="B207" t="s">
-        <v>2751</v>
+        <v>2747</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A208" t="s">
-        <v>2808</v>
+        <v>2804</v>
       </c>
       <c r="B208" t="s">
-        <v>2809</v>
+        <v>2805</v>
       </c>
     </row>
   </sheetData>
@@ -21012,7 +20966,7 @@
         <v>2635</v>
       </c>
       <c r="H5" t="s">
-        <v>2718</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
@@ -21025,10 +20979,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>2664</v>
+        <v>2660</v>
       </c>
       <c r="B7" t="s">
-        <v>2665</v>
+        <v>2661</v>
       </c>
     </row>
   </sheetData>
@@ -21038,10 +20992,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54AD7347-2C61-4ECD-8840-77BC33B67550}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -21049,24 +21003,7 @@
     <col min="1" max="1" width="37.06640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.46484375" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>2644</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2641</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>2642</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2643</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -21123,87 +21060,87 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>2677</v>
+        <v>2673</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>2678</v>
+        <v>2674</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>2696</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>2719</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>2720</v>
+        <v>2716</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>2723</v>
+        <v>2719</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>2756</v>
+        <v>2752</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>2765</v>
+        <v>2761</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>2766</v>
+        <v>2762</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>2769</v>
+        <v>2765</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>2779</v>
+        <v>2775</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>2787</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>2788</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>2791</v>
+        <v>2787</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>2794</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>2795</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>2803</v>
+        <v>2799</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.45">
@@ -21213,17 +21150,17 @@
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>2804</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>2807</v>
+        <v>2803</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>2810</v>
+        <v>2806</v>
       </c>
     </row>
   </sheetData>

--- a/dictionary/Главный словарь.xlsx
+++ b/dictionary/Главный словарь.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\replace_all\dictionary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03615E6E-43CE-400E-B4DF-2BE05F133D3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7459A7-F81A-4AED-8AD8-1A5589F7F045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Простые" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2986" uniqueCount="2826">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3043" uniqueCount="2875">
   <si>
     <t>криминальная</t>
   </si>
@@ -8620,6 +8620,153 @@
   </si>
   <si>
     <t>санкционировано</t>
+  </si>
+  <si>
+    <t>киллер</t>
+  </si>
+  <si>
+    <t>наёмный убийца</t>
+  </si>
+  <si>
+    <t>киллеры</t>
+  </si>
+  <si>
+    <t>наёмные убийцы</t>
+  </si>
+  <si>
+    <t>высокоэффективные</t>
+  </si>
+  <si>
+    <t>высококачественные</t>
+  </si>
+  <si>
+    <t>высокоэффективных</t>
+  </si>
+  <si>
+    <t>высококачественных</t>
+  </si>
+  <si>
+    <t>высокоэффективно</t>
+  </si>
+  <si>
+    <t>высококачественно</t>
+  </si>
+  <si>
+    <t>опротестовала</t>
+  </si>
+  <si>
+    <t>оспорила</t>
+  </si>
+  <si>
+    <t>опротестовали</t>
+  </si>
+  <si>
+    <t>оспорили</t>
+  </si>
+  <si>
+    <t>профессионал</t>
+  </si>
+  <si>
+    <t>искусник</t>
+  </si>
+  <si>
+    <t>профессионалы</t>
+  </si>
+  <si>
+    <t>искусники</t>
+  </si>
+  <si>
+    <t>профессионала</t>
+  </si>
+  <si>
+    <t>профессионалов</t>
+  </si>
+  <si>
+    <t>искусников</t>
+  </si>
+  <si>
+    <t>профессионально</t>
+  </si>
+  <si>
+    <t>искусно</t>
+  </si>
+  <si>
+    <t>оперативная группа</t>
+  </si>
+  <si>
+    <t>кодовыми</t>
+  </si>
+  <si>
+    <t>генеральный</t>
+  </si>
+  <si>
+    <t>генерального</t>
+  </si>
+  <si>
+    <t>главного</t>
+  </si>
+  <si>
+    <t>генеральные</t>
+  </si>
+  <si>
+    <t>генеральных</t>
+  </si>
+  <si>
+    <t>главных</t>
+  </si>
+  <si>
+    <t>генеральную</t>
+  </si>
+  <si>
+    <t>главную</t>
+  </si>
+  <si>
+    <t>секретной</t>
+  </si>
+  <si>
+    <t>тайной</t>
+  </si>
+  <si>
+    <t>секретная</t>
+  </si>
+  <si>
+    <t>тайная</t>
+  </si>
+  <si>
+    <t>тайно</t>
+  </si>
+  <si>
+    <t>секретно</t>
+  </si>
+  <si>
+    <t>секретные</t>
+  </si>
+  <si>
+    <t>тайные</t>
+  </si>
+  <si>
+    <t>секреты</t>
+  </si>
+  <si>
+    <t>секретов</t>
+  </si>
+  <si>
+    <t>тайн</t>
+  </si>
+  <si>
+    <t>секрета</t>
+  </si>
+  <si>
+    <t>тайны</t>
+  </si>
+  <si>
+    <t>профессионального</t>
+  </si>
+  <si>
+    <t>контактов</t>
+  </si>
+  <si>
+    <t>связей</t>
   </si>
 </sst>
 </file>
@@ -8749,7 +8896,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -8780,6 +8927,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -9115,10 +9263,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDCB9A67-77EF-4B4B-A409-BADD45AFE303}">
-  <dimension ref="A1:D1267"/>
+  <dimension ref="A1:D1292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1228" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A1257" sqref="A1257:B1257"/>
+    <sheetView tabSelected="1" topLeftCell="A1265" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A1294" sqref="A1294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -19216,21 +19364,225 @@
         <v>2824</v>
       </c>
     </row>
+    <row r="1268" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1268" t="s">
+        <v>2830</v>
+      </c>
+      <c r="B1268" s="16" t="s">
+        <v>2831</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1269" t="s">
+        <v>2832</v>
+      </c>
+      <c r="B1269" s="16" t="s">
+        <v>2833</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1270" t="s">
+        <v>2834</v>
+      </c>
+      <c r="B1270" s="16" t="s">
+        <v>2835</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1271" t="s">
+        <v>2836</v>
+      </c>
+      <c r="B1271" t="s">
+        <v>2837</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1272" t="s">
+        <v>2838</v>
+      </c>
+      <c r="B1272" t="s">
+        <v>2839</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1273" t="s">
+        <v>2840</v>
+      </c>
+      <c r="B1273" t="s">
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1274" t="s">
+        <v>2842</v>
+      </c>
+      <c r="B1274" t="s">
+        <v>2843</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1275" t="s">
+        <v>2844</v>
+      </c>
+      <c r="B1275" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1276" t="s">
+        <v>2845</v>
+      </c>
+      <c r="B1276" t="s">
+        <v>2846</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1277" t="s">
+        <v>2847</v>
+      </c>
+      <c r="B1277" t="s">
+        <v>2848</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1278" t="s">
+        <v>2851</v>
+      </c>
+      <c r="B1278" t="s">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1279" t="s">
+        <v>2852</v>
+      </c>
+      <c r="B1279" t="s">
+        <v>2853</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1280" t="s">
+        <v>2854</v>
+      </c>
+      <c r="B1280" t="s">
+        <v>2751</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1281" t="s">
+        <v>2855</v>
+      </c>
+      <c r="B1281" t="s">
+        <v>2856</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1282" t="s">
+        <v>2857</v>
+      </c>
+      <c r="B1282" t="s">
+        <v>2858</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1283" t="s">
+        <v>2859</v>
+      </c>
+      <c r="B1283" t="s">
+        <v>2860</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1284" t="s">
+        <v>2861</v>
+      </c>
+      <c r="B1284" t="s">
+        <v>2862</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1285" t="s">
+        <v>2864</v>
+      </c>
+      <c r="B1285" t="s">
+        <v>2863</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1286" t="s">
+        <v>2865</v>
+      </c>
+      <c r="B1286" t="s">
+        <v>2866</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1287" t="s">
+        <v>2867</v>
+      </c>
+      <c r="B1287" t="s">
+        <v>2871</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1288" t="s">
+        <v>2868</v>
+      </c>
+      <c r="B1288" t="s">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1289" t="s">
+        <v>2870</v>
+      </c>
+      <c r="B1289" t="s">
+        <v>2871</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1290" t="s">
+        <v>2873</v>
+      </c>
+      <c r="B1290" t="s">
+        <v>2874</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1291" t="s">
+        <v>614</v>
+      </c>
+      <c r="B1291" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1292" t="s">
+        <v>572</v>
+      </c>
+      <c r="B1292" t="s">
+        <v>573</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1173" location="Студенты" display="Студенты" xr:uid="{E749D50F-59F3-46FB-A79D-93EF5AD5CBAC}"/>
     <hyperlink ref="A1180" location="Анатомия-программы-на-rust" display="Анатомия-программы-на-rust" xr:uid="{4D17B3C3-5DA0-4FB6-9271-5294269BA9D0}"/>
+    <hyperlink ref="B1268" r:id="rId1" display="https://sinonim.org/s/%D0%B2%D1%8B%D1%81%D0%BE%D0%BA%D0%BE%D0%BA%D0%B0%D1%87%D0%B5%D1%81%D1%82%D0%B2%D0%B5%D0%BD%D0%BD%D1%8B%D0%B5" xr:uid="{26819662-5C76-4143-BBF7-95FD97D2E21F}"/>
+    <hyperlink ref="B1269" r:id="rId2" display="https://sinonim.org/s/%D0%B2%D1%8B%D1%81%D0%BE%D0%BA%D0%BE%D0%BA%D0%B0%D1%87%D0%B5%D1%81%D1%82%D0%B2%D0%B5%D0%BD%D0%BD%D1%8B%D0%B5" xr:uid="{4DCD9A28-B361-4134-BC32-7E17D093A7AF}"/>
+    <hyperlink ref="B1270" r:id="rId3" display="https://sinonim.org/s/%D0%B2%D1%8B%D1%81%D0%BE%D0%BA%D0%BE%D0%BA%D0%B0%D1%87%D0%B5%D1%81%D1%82%D0%B2%D0%B5%D0%BD%D0%BD%D1%8B%D0%B5" xr:uid="{09353541-F590-4F2F-A078-5200C096FF74}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D669A2-CEB8-B743-9F48-CA926DA2420B}">
-  <dimension ref="A1:B208"/>
+  <dimension ref="A1:B210"/>
   <sheetViews>
     <sheetView topLeftCell="A194" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B209" sqref="B209"/>
+      <selection activeCell="A211" sqref="A211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -20901,6 +21253,22 @@
       </c>
       <c r="B208" t="s">
         <v>2805</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A209" t="s">
+        <v>2826</v>
+      </c>
+      <c r="B209" t="s">
+        <v>2827</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A210" t="s">
+        <v>2828</v>
+      </c>
+      <c r="B210" t="s">
+        <v>2829</v>
       </c>
     </row>
   </sheetData>
@@ -21010,10 +21378,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A525149A-65EC-408A-9A2A-B87A37875F9B}">
-  <dimension ref="A1:A29"/>
+  <dimension ref="A1:A32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:XFD36"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -21163,6 +21531,21 @@
         <v>2806</v>
       </c>
     </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>2849</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>2872</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
